--- a/data/trans_dic/P25C$pormicuenta_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25C$pormicuenta_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9205952643537917</v>
+        <v>0.9205952643537916</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9713476986857261</v>
+        <v>0.9713476986857259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9358645752589536</v>
+        <v>0.9358645752589534</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8516183918324061</v>
+        <v>0.8361337619622817</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9207863442106569</v>
+        <v>0.9211841120738818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8840306028136408</v>
+        <v>0.881856148115476</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9576487991353424</v>
+        <v>0.9590183596494389</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.992842035703525</v>
+        <v>0.992613554084145</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9676158747336576</v>
+        <v>0.9647672701863093</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9058102867463305</v>
+        <v>0.9058102867463307</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9151711683944915</v>
+        <v>0.9151711683944913</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9090396216305061</v>
+        <v>0.9090396216305062</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8522573843596237</v>
+        <v>0.8529711164624029</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8629049291848372</v>
+        <v>0.8591386262706414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8704876753010083</v>
+        <v>0.8687760857182075</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9429062871771272</v>
+        <v>0.9431917999576321</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9571819872081457</v>
+        <v>0.9507126090070912</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.939825902913043</v>
+        <v>0.9403545877987749</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.8667054959618712</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9022776382637733</v>
+        <v>0.9022776382637736</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8786912257881586</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8054940475763834</v>
+        <v>0.8080587025812979</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8342048158739378</v>
+        <v>0.8314547827823501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8332841038428328</v>
+        <v>0.8387657312388792</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9147057945921377</v>
+        <v>0.9155679079116275</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9489824475751825</v>
+        <v>0.9493560302490137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9134204260193679</v>
+        <v>0.9163355888666845</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.8682317806932959</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8823718683875464</v>
+        <v>0.8823718683875467</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8357085105641113</v>
+        <v>0.8336116419337342</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8208540763071772</v>
+        <v>0.8216938669396172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8486881190326097</v>
+        <v>0.8459060922696601</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9317798456923398</v>
+        <v>0.9278183432612156</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9097625106608953</v>
+        <v>0.9142528613832253</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.911849266716921</v>
+        <v>0.9091744122071329</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8679674533782626</v>
+        <v>0.8670308574323653</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8735816153412042</v>
+        <v>0.8762292197343785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8795726797158098</v>
+        <v>0.8795757053328891</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9169416397889747</v>
+        <v>0.9164981926433304</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9254627508654043</v>
+        <v>0.9266796079388769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9141870674529152</v>
+        <v>0.9143024162964509</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>104602</v>
+        <v>102700</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48669</v>
+        <v>48690</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>155308</v>
+        <v>154926</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>117625</v>
+        <v>117793</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52478</v>
+        <v>52466</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>169993</v>
+        <v>169492</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>145736</v>
+        <v>145858</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>77714</v>
+        <v>77375</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>227250</v>
+        <v>226804</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>161237</v>
+        <v>161286</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>86205</v>
+        <v>85622</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>245352</v>
+        <v>245490</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>132532</v>
+        <v>132954</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>69748</v>
+        <v>69518</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>206775</v>
+        <v>208136</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>150501</v>
+        <v>150643</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>79344</v>
+        <v>79376</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>226661</v>
+        <v>227384</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>168694</v>
+        <v>168270</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>114397</v>
+        <v>114514</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>289589</v>
+        <v>288640</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>188086</v>
+        <v>187287</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>126787</v>
+        <v>127413</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>311141</v>
+        <v>310228</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>573049</v>
+        <v>572430</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>319635</v>
+        <v>320604</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>902537</v>
+        <v>902541</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>605382</v>
+        <v>605090</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>338618</v>
+        <v>339063</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>938056</v>
+        <v>938174</v>
       </c>
     </row>
     <row r="24">
